--- a/doc/table.xlsx
+++ b/doc/table.xlsx
@@ -5,28 +5,151 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\IdeaProjects\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9419EBA1-C9CD-48C9-BAFE-37F55EB25016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA16A7A-FBB0-4101-9EE0-20BB03B9C9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="setting" sheetId="4" r:id="rId1"/>
+    <sheet name="t_flow_biz_cat" sheetId="1" r:id="rId2"/>
+    <sheet name="t_flow_biz_rel" sheetId="2" r:id="rId3"/>
+    <sheet name="dictionary" sheetId="5" r:id="rId4"/>
+    <sheet name="model" sheetId="3" r:id="rId5"/>
+    <sheet name="test" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{C280EBC7-1CAA-40CF-98D9-2658768AD8F5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+java attribute</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{62EF11BE-B4DA-4717-B94B-8799E629D1FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+java attribute</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{F471CDB7-0924-4AF1-A2C2-7CCBE056E48D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+java attribute</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
   <si>
     <t>Column</t>
   </si>
@@ -207,6 +330,280 @@
   </si>
   <si>
     <t>T_flow_biz_cat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务流程种类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务-流程关系</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>column</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tableDesc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mysql</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserver</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lombok</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sqlserverDataType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bigint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>decimal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>char</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varbinary</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nvarchar(max)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(max)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>varbinary(max)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>swagger</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>notnull</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaAttr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>camelCase</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认id是pk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpaAudit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>idPK</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>serialized</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultPkStrategy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpaPkStrategy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>identity</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jpa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tolist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringquote</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用lombok，默认启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用swagger，默认不启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下划线改驼峰，默认启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用jpa注解，默认不启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用jpa audit，如果没有写则自动创建create_date, create_user, update_date, upate_user，默认不启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>序列化，继承Serializable，并生成UID，默认启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>uuid</t>
+  </si>
+  <si>
+    <t>默认主键生成策略，默认uuid，前提是jpa启用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>smallint</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>isDeleted</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonDateFormat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>json date格式化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>javaType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procDefId</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>procDefFile</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +611,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +647,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -277,6 +700,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -556,11 +985,156 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE8D9CC4-34B0-45C9-BBF9-C4FA19EF4C7D}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F1353B3A-987A-4540-9B55-0B995B718631}">
+          <x14:formula1>
+            <xm:f>dictionary!$B$1:$C$1</xm:f>
+          </x14:formula1>
+          <xm:sqref>B1</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EA70E597-8671-41DC-AB5A-0DCCD8421781}">
+          <x14:formula1>
+            <xm:f>dictionary!$B$4:$E$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -569,12 +1143,15 @@
     <col min="2" max="2" width="51.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -584,8 +1161,11 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -594,7 +1174,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -603,7 +1183,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -612,7 +1192,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -621,7 +1201,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -632,7 +1212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -643,7 +1223,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -654,7 +1234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -665,7 +1245,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
@@ -676,7 +1256,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -687,28 +1267,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>29</v>
       </c>
@@ -733,6 +1313,213 @@
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D1662-529B-42D4-AB62-6DF582571BC0}">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="87.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -740,177 +1527,834 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA9D1662-529B-42D4-AB62-6DF582571BC0}">
-  <dimension ref="A1:C16"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{233BD8DA-9733-4C35-9510-FF2AF33C6D06}">
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.875" defaultRowHeight="24.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.5" customWidth="1"/>
+    <col min="1" max="1" width="19" style="4" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="3" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M2" t="s">
+        <v>75</v>
+      </c>
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P2" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" t="s">
+        <v>87</v>
+      </c>
+      <c r="S2" t="s">
+        <v>88</v>
+      </c>
+      <c r="T2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" t="b">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),B2,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"bigint"</v>
+      </c>
+      <c r="C9" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),D2,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"bit"</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:R9" si="0">_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),F2,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"decimal"</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>"money"</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>"float"</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>"date"</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>"datetime2"</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>"datetime"</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v>"char"</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="0"/>
+        <v>"varchar"</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>"varchar(max)"</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="0"/>
+        <v>"nchar"</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>"nvarchar"</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="0"/>
+        <v>"nvarchar(max)"</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="0"/>
+        <v>"binary"</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="0"/>
+        <v>"varbinary"</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="0"/>
+        <v>"varbinary(max)"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="str">
+        <f>_xlfn.CONCAT(B9,",")</f>
+        <v>"bigint",</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" ref="C10:Q10" si="1">_xlfn.CONCAT(C9,",")</f>
+        <v>"bit",</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>"decimal",</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>"money",</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>"float",</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>"date",</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>"datetime2",</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>"datetime",</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>"char",</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="1"/>
+        <v>"varchar",</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>"varchar(max)",</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="1"/>
+        <v>"nchar",</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="1"/>
+        <v>"nvarchar",</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>"nvarchar(max)",</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="1"/>
+        <v>"binary",</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="1"/>
+        <v>"varbinary",</v>
+      </c>
+      <c r="R10" t="str">
+        <f>_xlfn.CONCAT(R9,"")</f>
+        <v>"varbinary(max)"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),B4,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"uuid"</v>
+      </c>
+      <c r="C11" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),C4,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"identity"</v>
+      </c>
+      <c r="D11" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),D4,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"table"</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),E4,_xlfn.VALUETOTEXT($B$14))</f>
+        <v>"auto"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B12" t="str">
+        <f>_xlfn.CONCAT(B11,",")</f>
+        <v>"uuid",</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" ref="C12:E12" si="2">_xlfn.CONCAT(C11,",")</f>
+        <v>"identity",</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="2"/>
+        <v>"table",</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>"auto",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="str">
+        <f>""""</f>
+        <v>"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),B19,_xlfn.VALUETOTEXT($B$14), ",")</f>
+        <v>"column",</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" ref="C20:I20" si="3">_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),C19,_xlfn.VALUETOTEXT($B$14), ",")</f>
+        <v>"remark",</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="3"/>
+        <v>"type",</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="3"/>
+        <v>"length",</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="3"/>
+        <v>"pk",</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="3"/>
+        <v>"notnull",</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>"default",</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>"javaAttr",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B24" t="str">
+        <f>_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),B23,_xlfn.VALUETOTEXT($B$14), ",")</f>
+        <v>"sql_type",</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" ref="C24:J24" si="4">_xlfn.CONCAT(_xlfn.VALUETOTEXT($B$14),C23,_xlfn.VALUETOTEXT($B$14), ",")</f>
+        <v>"lombok",</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="4"/>
+        <v>"swagger",</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>"camelCase",</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="4"/>
+        <v>"idPK",</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="4"/>
+        <v>"jpa",</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="4"/>
+        <v>"jpaAudit",</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>"serialized",</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>"defaultPkStrategy",</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D19" xr:uid="{1D47979D-FC34-45D9-A277-4BE152AB84D6}">
+      <formula1>$B$2:$T$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:G19" xr:uid="{865DFEF8-C6D4-41C9-B92D-85E7736CD1DE}">
+      <formula1>$B$3:$C$3</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DAD396B-1E64-4FE7-AEBA-A6F0044D16B7}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="3" max="4" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E11C3BB-E8C2-4780-A31A-0524C4AE831D}">
+          <x14:formula1>
+            <xm:f>dictionary!$B$2:$T$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94FFABFD-30D2-457F-8D99-43735367D87A}">
+          <x14:formula1>
+            <xm:f>dictionary!$B$3:$C$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730BEF99-EBED-4A62-82BD-A2A2AF1AA757}">
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="65.625" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
+    <col min="7" max="7" width="9" style="8"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6">
+        <v>255</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="6">
+        <v>50</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6">
+        <v>128</v>
+      </c>
+      <c r="H10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="6">
+        <v>128</v>
+      </c>
+      <c r="H11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40662859-7004-44BE-8842-46AB6B0274DA}">
+          <x14:formula1>
+            <xm:f>dictionary!$B$2:$T$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>C1:C1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50A25023-D819-4656-9EAE-DD7B8BB1EBAD}">
+          <x14:formula1>
+            <xm:f>dictionary!$B$5:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E1:F1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>